--- a/sputnik/personal/uch/uch161.xlsx
+++ b/sputnik/personal/uch/uch161.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Оплата членского взноса</t>
   </si>
   <si>
@@ -58,6 +55,12 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты 2019г на 147 дн</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №161</t>
   </si>
 </sst>
 </file>
@@ -67,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +82,13 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -98,7 +108,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -145,37 +155,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -199,20 +183,26 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -520,10 +510,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -537,10 +527,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="16"/>
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>14</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -549,9 +541,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="12">
+        <v>43221</v>
+      </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="8">
         <v>633.84</v>
@@ -559,11 +553,11 @@
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>43221</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6">
         <v>13173.92</v>
@@ -571,11 +565,11 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>43274</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
@@ -583,11 +577,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>43281</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6">
@@ -595,11 +589,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>43281</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6">
@@ -607,81 +601,94 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>43466</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1052.1600000000001</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>43586</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10">
+        <v>12176.56</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>43886</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C10" s="9"/>
+      <c r="D10" s="11">
+        <v>8396.57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>43886</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
+        <v>12176.56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>43886</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11">
         <v>1052.1600000000001</v>
       </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>43586</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11">
-        <v>12176.56</v>
-      </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>43886</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="B13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="17">
+        <f>PRODUCT(D10,512,0.001)</f>
+        <v>4299.0438400000003</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
         <v>43886</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12">
-        <v>13288.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>43886</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="B14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="12">
-        <v>4300.8</v>
-      </c>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>43886</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="12">
-        <v>1953.44</v>
-      </c>
-      <c r="D13" s="12"/>
+      <c r="C14" s="17">
+        <f>PRODUCT(13228.72,147,0.001)</f>
+        <v>1944.6218399999998</v>
+      </c>
+      <c r="D14" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch161.xlsx
+++ b/sputnik/personal/uch/uch161.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Начислен взнос 2019/2020(с 01.05.2019 по 30.04.2020)</t>
-  </si>
-  <si>
-    <t>Начислена арендная плата за зем.уч. За 2019</t>
   </si>
   <si>
     <t>Оплата взноса 2018/2019</t>
@@ -510,10 +507,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -528,10 +525,10 @@
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -600,29 +597,29 @@
         <v>822</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
-        <v>43466</v>
+        <v>43586</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10">
+        <v>12176.56</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>43886</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11">
-        <v>1052.1600000000001</v>
-      </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>43586</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10">
-        <v>12176.56</v>
-      </c>
-      <c r="D9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="11">
+        <v>8396.57</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
@@ -631,9 +628,9 @@
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="11">
-        <v>8396.57</v>
+        <v>12176.56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -641,23 +638,26 @@
         <v>43886</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11">
-        <v>12176.56</v>
+        <v>1052.1600000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="15">
         <v>43886</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="11"/>
+      <c r="B12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="17">
+        <f>PRODUCT(D9,512,0.001)</f>
+        <v>4299.0438400000003</v>
+      </c>
       <c r="D12" s="11">
-        <v>1052.1600000000001</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,25 +668,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="17">
-        <f>PRODUCT(D10,512,0.001)</f>
-        <v>4299.0438400000003</v>
-      </c>
-      <c r="D13" s="11">
-        <v>3.43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>43886</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="17">
         <f>PRODUCT(13228.72,147,0.001)</f>
         <v>1944.6218399999998</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D13" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch161.xlsx
+++ b/sputnik/personal/uch/uch161.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Наименование / садовый участок №161</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021(с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -156,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -200,6 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -507,10 +511,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A14" sqref="A14:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -672,6 +676,30 @@
         <v>1944.6218399999998</v>
       </c>
       <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>43952</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10">
+        <v>14226.08</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch161.xlsx
+++ b/sputnik/personal/uch/uch161.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Оплачено</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021(с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Начислена оплата за аренду земельного участка за 2021</t>
   </si>
 </sst>
 </file>
@@ -514,7 +520,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -690,15 +696,27 @@
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="19">
+        <v>44317</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="10">
+        <v>14609.68</v>
+      </c>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="19">
+        <v>44197</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="10">
+        <v>540.54999999999995</v>
+      </c>
       <c r="D16" s="10"/>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch161.xlsx
+++ b/sputnik/personal/uch/uch161.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Оплачено</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Начислена оплата за аренду земельного участка за 2021</t>
+  </si>
+  <si>
+    <t>Оплата взноса 2020/2021</t>
   </si>
 </sst>
 </file>
@@ -100,7 +103,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +113,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -210,6 +231,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -517,10 +546,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -566,7 +595,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="20">
         <v>13173.92</v>
       </c>
       <c r="D4" s="6"/>
@@ -591,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6">
+      <c r="D6" s="20">
         <v>3955.35</v>
       </c>
     </row>
@@ -603,7 +632,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6">
+      <c r="D7" s="20">
         <v>822</v>
       </c>
     </row>
@@ -614,33 +643,33 @@
       <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="23">
         <v>12176.56</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>43886</v>
+      <c r="A9" s="13">
+        <v>43586</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="11">
-        <v>8396.57</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C9" s="23">
+        <v>1052.1600000000001</v>
+      </c>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>43886</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11">
-        <v>12176.56</v>
+        <v>8</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="22">
+        <v>8396.57</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -648,26 +677,23 @@
         <v>43886</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="24">
+        <v>12176.56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>43886</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11">
+      <c r="C12" s="11"/>
+      <c r="D12" s="24">
         <v>1052.1600000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>43886</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="17">
-        <f>PRODUCT(D9,512,0.001)</f>
-        <v>4299.0438400000003</v>
-      </c>
-      <c r="D12" s="11">
-        <v>3.43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -675,49 +701,118 @@
         <v>43886</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="17">
+        <f>PRODUCT(D10,512,0.001)</f>
+        <v>4299.0438400000003</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>43886</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C14" s="17">
         <f>PRODUCT(13228.72,147,0.001)</f>
         <v>1944.6218399999998</v>
       </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
-        <v>43952</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="10">
-        <v>14226.08</v>
-      </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
-        <v>44317</v>
+        <v>43952</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="10">
-        <v>14609.68</v>
+        <v>14</v>
+      </c>
+      <c r="C15" s="25">
+        <v>13700</v>
       </c>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
+        <v>43952</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="10">
+        <v>526.08000000000004</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>44317</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="10">
+        <v>14609.68</v>
+      </c>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
         <v>44197</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C18" s="10">
         <v>540.54999999999995</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>44428</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="25">
+        <v>1028.1199999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>44469</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="25">
+        <v>3720.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch161.xlsx
+++ b/sputnik/personal/uch/uch161.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Оплачено</t>
   </si>
@@ -549,7 +549,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -797,10 +797,16 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="19">
+        <v>44496</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="25">
+        <v>3720.03</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>

--- a/sputnik/personal/uch/uch161.xlsx
+++ b/sputnik/personal/uch/uch161.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Оплачено</t>
   </si>
@@ -548,8 +548,8 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D19:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -809,10 +809,16 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="19">
+        <v>44536</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="25">
+        <v>3720.03</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
